--- a/NameForFile_data_quality_reports.xlsx
+++ b/NameForFile_data_quality_reports.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sdcountycagov-my.sharepoint.com/personal/kiarash_rastegar_sdcounty_ca_gov/Documents/Desktop/data_quality_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0C3E0122BCA3B67A06A801A3F4F02AE29E480894" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CB0B651-7C64-4251-9120-84FA90506DB9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_3D314A8EE5DFFE92E84F06F36A523DEEFE4726D8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D953BD4A-F8DC-4352-A01A-EDFAFB4E3EC6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>Fields of Interest</t>
   </si>
@@ -65,6 +65,9 @@
     <t>Sex</t>
   </si>
   <si>
+    <t>Incident_ID</t>
+  </si>
+  <si>
     <t>100.00</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
     <t>PERFORMINGFACILITYID</t>
   </si>
   <si>
+    <t>IncidentID</t>
+  </si>
+  <si>
     <t>RESULT</t>
   </si>
   <si>
@@ -251,16 +257,10 @@
     <t>SARS-CoV-2 RNA Resp Ql NAA+probe - Final</t>
   </si>
   <si>
-    <t>SARS-CoV-2 N gene Resp Ql NAA+probe - Final</t>
+    <t>FLUBV RNA Spec Ql NAA+probe - Final</t>
   </si>
   <si>
     <t>SARS-CoV-2 RNA Nph Ql NAA+non-probe - Final</t>
-  </si>
-  <si>
-    <t>HCV Ab SerPl Ql IA - Final</t>
-  </si>
-  <si>
-    <t>FLUBV RNA Spec Ql NAA+probe - Final</t>
   </si>
   <si>
     <t>FLUAV RNA Spec Ql NAA+probe - Final</t>
@@ -342,6 +342,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -665,11 +669,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -690,13 +702,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -704,13 +716,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -718,13 +730,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -732,13 +744,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -746,13 +758,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -760,13 +772,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -774,13 +786,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -788,13 +800,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -802,13 +814,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -816,13 +828,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -830,141 +842,155 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -976,23 +1002,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1006,7 +1041,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -1023,7 +1058,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -1040,7 +1075,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>48</v>
@@ -1051,7 +1086,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -1065,7 +1100,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1076,7 +1111,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>39</v>
@@ -1100,27 +1135,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="33.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>841</v>
@@ -1131,7 +1174,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -1142,7 +1185,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -1153,7 +1196,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1164,7 +1207,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1175,7 +1218,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1186,7 +1229,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>874</v>
@@ -1213,16 +1256,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1239,7 +1282,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>874</v>
@@ -1258,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,76 +1316,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2">
-        <v>506</v>
+        <v>24</v>
       </c>
       <c r="C2">
-        <v>506</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>367</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>873</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>908</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>916</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
